--- a/Cadeia de Valor_Operar.xlsx
+++ b/Cadeia de Valor_Operar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabriel/Desktop/Dev/BI Cadeia de Valor - Operar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B277373E-4257-0940-B520-7E1FE1C19BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049814D7-373A-3942-9BC1-058D8CD9F3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="780" windowWidth="29900" windowHeight="19880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23600" yWindow="500" windowWidth="23600" windowHeight="15900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cadeia de Valor_Anterior" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,55 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="D88" authorId="0" shapeId="0" xr:uid="{D6A8F49F-ABBA-E14F-B921-E8138CEEF88F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">reduzir, não é necessario incluir o foco
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">	-Cleidi Sander</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D93" authorId="0" shapeId="0" xr:uid="{A9A950EB-E14E-2C4D-B486-46152F0D50B2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>gestão
+	-Cleidi Sander</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2555" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2555" uniqueCount="596">
   <si>
     <t>Processo</t>
   </si>
@@ -1991,9 +2038,6 @@
     <t>Programar distribuição de motoristas para treinamento</t>
   </si>
   <si>
-    <t>Revisar programação de escala</t>
-  </si>
-  <si>
     <t>Distribuir escalas programadas</t>
   </si>
   <si>
@@ -2123,33 +2167,12 @@
     <t>Definir e incrementar portfólio de recuperação de peças.</t>
   </si>
   <si>
-    <t>Realizar manutenção corretiva mecânica e elétrica</t>
-  </si>
-  <si>
-    <t>Reparar Central de Controle Eletrônico (Corretiva) - TROCA COMP.</t>
-  </si>
-  <si>
-    <t>Realizar manutenção corretiva chapeação</t>
-  </si>
-  <si>
-    <t>Inpecionar pneus</t>
-  </si>
-  <si>
     <t>Definir critérios para manutenção de componentes.</t>
   </si>
   <si>
-    <t>Realizar manutenção prescritiva</t>
-  </si>
-  <si>
-    <t>Executar programação de serviços</t>
-  </si>
-  <si>
     <t>Registrar execução de serviços de manutenção</t>
   </si>
   <si>
-    <t>Abrir e fechar ordem de serviços</t>
-  </si>
-  <si>
     <t>Programar e atender manutenção predial</t>
   </si>
   <si>
@@ -2190,13 +2213,19 @@
   </si>
   <si>
     <t>Realizar manutenção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revisar programação de escala </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar manutenção corretiva mecânica e elétrica </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2214,14 +2243,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2280,8 +2301,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2318,8 +2372,20 @@
         <bgColor rgb="FFC9DAF8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD0E0E3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFF9CB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2355,11 +2421,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2376,7 +2470,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2388,13 +2482,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5016,7 +5132,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A167" s="3" t="s">
         <v>4</v>
       </c>
@@ -6566,7 +6682,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A279" s="3" t="s">
         <v>323</v>
       </c>
@@ -6580,7 +6696,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A280" s="3" t="s">
         <v>323</v>
       </c>
@@ -6594,7 +6710,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A281" s="3" t="s">
         <v>323</v>
       </c>
@@ -6608,7 +6724,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A282" s="3" t="s">
         <v>323</v>
       </c>
@@ -6622,7 +6738,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A283" s="3" t="s">
         <v>323</v>
       </c>
@@ -6636,7 +6752,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A284" s="3" t="s">
         <v>323</v>
       </c>
@@ -6650,7 +6766,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A285" s="3" t="s">
         <v>323</v>
       </c>
@@ -6664,7 +6780,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A286" s="3" t="s">
         <v>323</v>
       </c>
@@ -6678,7 +6794,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A287" s="3" t="s">
         <v>323</v>
       </c>
@@ -6692,7 +6808,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A288" s="3" t="s">
         <v>323</v>
       </c>
@@ -6706,7 +6822,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A289" s="3" t="s">
         <v>323</v>
       </c>
@@ -6720,7 +6836,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A290" s="3" t="s">
         <v>323</v>
       </c>
@@ -6734,7 +6850,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A291" s="3" t="s">
         <v>323</v>
       </c>
@@ -6748,7 +6864,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A292" s="3" t="s">
         <v>323</v>
       </c>
@@ -6762,7 +6878,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A293" s="3" t="s">
         <v>323</v>
       </c>
@@ -6776,7 +6892,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A294" s="3" t="s">
         <v>323</v>
       </c>
@@ -6790,7 +6906,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A295" s="3" t="s">
         <v>323</v>
       </c>
@@ -6804,7 +6920,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A296" s="3" t="s">
         <v>323</v>
       </c>
@@ -6818,7 +6934,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A297" s="3" t="s">
         <v>323</v>
       </c>
@@ -6832,7 +6948,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A298" s="3" t="s">
         <v>323</v>
       </c>
@@ -6846,7 +6962,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A299" s="3" t="s">
         <v>323</v>
       </c>
@@ -6860,7 +6976,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A300" s="3" t="s">
         <v>323</v>
       </c>
@@ -6874,7 +6990,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A301" s="3" t="s">
         <v>323</v>
       </c>
@@ -6888,7 +7004,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A302" s="3" t="s">
         <v>323</v>
       </c>
@@ -6902,7 +7018,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A303" s="3" t="s">
         <v>323</v>
       </c>
@@ -6916,7 +7032,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A304" s="3" t="s">
         <v>323</v>
       </c>
@@ -6930,7 +7046,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A305" s="3" t="s">
         <v>323</v>
       </c>
@@ -6944,7 +7060,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A306" s="3" t="s">
         <v>323</v>
       </c>
@@ -6958,7 +7074,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A307" s="3" t="s">
         <v>323</v>
       </c>
@@ -6972,7 +7088,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A308" s="3" t="s">
         <v>323</v>
       </c>
@@ -6986,7 +7102,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A309" s="3" t="s">
         <v>323</v>
       </c>
@@ -7000,7 +7116,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A310" s="3" t="s">
         <v>323</v>
       </c>
@@ -7014,7 +7130,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A311" s="3" t="s">
         <v>323</v>
       </c>
@@ -7028,7 +7144,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A312" s="3" t="s">
         <v>323</v>
       </c>
@@ -7224,7 +7340,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A326" s="4" t="s">
         <v>323</v>
       </c>
@@ -7238,7 +7354,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A327" s="4" t="s">
         <v>323</v>
       </c>
@@ -7252,7 +7368,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A328" s="4" t="s">
         <v>323</v>
       </c>
@@ -7266,7 +7382,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A329" s="4" t="s">
         <v>323</v>
       </c>
@@ -7280,7 +7396,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A330" s="4" t="s">
         <v>323</v>
       </c>
@@ -7294,7 +7410,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A331" s="4" t="s">
         <v>323</v>
       </c>
@@ -7308,7 +7424,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A332" s="4" t="s">
         <v>323</v>
       </c>
@@ -7322,7 +7438,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A333" s="4" t="s">
         <v>323</v>
       </c>
@@ -7336,7 +7452,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A334" s="4" t="s">
         <v>323</v>
       </c>
@@ -7350,7 +7466,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A335" s="4" t="s">
         <v>323</v>
       </c>
@@ -7364,7 +7480,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A336" s="4" t="s">
         <v>323</v>
       </c>
@@ -7378,7 +7494,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A337" s="4" t="s">
         <v>323</v>
       </c>
@@ -7392,7 +7508,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A338" s="4" t="s">
         <v>323</v>
       </c>
@@ -7406,7 +7522,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A339" s="4" t="s">
         <v>323</v>
       </c>
@@ -7420,7 +7536,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A340" s="4" t="s">
         <v>323</v>
       </c>
@@ -7434,7 +7550,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A341" s="4" t="s">
         <v>323</v>
       </c>
@@ -7448,7 +7564,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A342" s="4" t="s">
         <v>323</v>
       </c>
@@ -7462,7 +7578,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A343" s="4" t="s">
         <v>323</v>
       </c>
@@ -7476,7 +7592,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A344" s="4" t="s">
         <v>323</v>
       </c>
@@ -7490,7 +7606,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A345" s="4" t="s">
         <v>323</v>
       </c>
@@ -7504,7 +7620,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A346" s="4" t="s">
         <v>323</v>
       </c>
@@ -7518,7 +7634,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A347" s="4" t="s">
         <v>323</v>
       </c>
@@ -7532,7 +7648,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A348" s="4" t="s">
         <v>323</v>
       </c>
@@ -7546,7 +7662,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A349" s="4" t="s">
         <v>323</v>
       </c>
@@ -7560,7 +7676,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A350" s="4" t="s">
         <v>323</v>
       </c>
@@ -7574,7 +7690,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A351" s="4" t="s">
         <v>323</v>
       </c>
@@ -7588,7 +7704,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A352" s="4" t="s">
         <v>323</v>
       </c>
@@ -7602,7 +7718,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A353" s="4" t="s">
         <v>323</v>
       </c>
@@ -7616,7 +7732,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A354" s="4" t="s">
         <v>323</v>
       </c>
@@ -7630,7 +7746,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A355" s="4" t="s">
         <v>323</v>
       </c>
@@ -7644,7 +7760,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A356" s="4" t="s">
         <v>323</v>
       </c>
@@ -7658,7 +7774,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A357" s="4" t="s">
         <v>323</v>
       </c>
@@ -7672,7 +7788,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A358" s="4" t="s">
         <v>323</v>
       </c>
@@ -7686,7 +7802,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A359" s="4" t="s">
         <v>323</v>
       </c>
@@ -7700,7 +7816,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A360" s="4" t="s">
         <v>323</v>
       </c>
@@ -7714,7 +7830,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A361" s="4" t="s">
         <v>323</v>
       </c>
@@ -7728,7 +7844,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A362" s="4" t="s">
         <v>323</v>
       </c>
@@ -7742,7 +7858,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A363" s="4" t="s">
         <v>323</v>
       </c>
@@ -7756,7 +7872,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A364" s="4" t="s">
         <v>323</v>
       </c>
@@ -7770,7 +7886,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A365" s="4" t="s">
         <v>323</v>
       </c>
@@ -7784,7 +7900,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A366" s="4" t="s">
         <v>323</v>
       </c>
@@ -7798,7 +7914,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A367" s="4" t="s">
         <v>323</v>
       </c>
@@ -7812,7 +7928,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A368" s="4" t="s">
         <v>323</v>
       </c>
@@ -7826,7 +7942,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A369" s="4" t="s">
         <v>323</v>
       </c>
@@ -7840,7 +7956,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A370" s="4" t="s">
         <v>323</v>
       </c>
@@ -7854,7 +7970,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A371" s="4" t="s">
         <v>323</v>
       </c>
@@ -7868,7 +7984,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A372" s="4" t="s">
         <v>323</v>
       </c>
@@ -7882,7 +7998,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A373" s="4" t="s">
         <v>323</v>
       </c>
@@ -7896,7 +8012,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A374" s="4" t="s">
         <v>323</v>
       </c>
@@ -7910,7 +8026,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A375" s="4" t="s">
         <v>323</v>
       </c>
@@ -7924,7 +8040,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A376" s="4" t="s">
         <v>323</v>
       </c>
@@ -7938,7 +8054,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A377" s="4" t="s">
         <v>323</v>
       </c>
@@ -7952,7 +8068,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A378" s="4" t="s">
         <v>323</v>
       </c>
@@ -7966,7 +8082,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A379" s="4" t="s">
         <v>323</v>
       </c>
@@ -7980,7 +8096,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A380" s="4" t="s">
         <v>323</v>
       </c>
@@ -7994,7 +8110,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A381" s="4" t="s">
         <v>323</v>
       </c>
@@ -8008,7 +8124,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A382" s="4" t="s">
         <v>323</v>
       </c>
@@ -8022,7 +8138,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A383" s="4" t="s">
         <v>323</v>
       </c>
@@ -8036,7 +8152,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A384" s="4" t="s">
         <v>323</v>
       </c>
@@ -8050,7 +8166,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A385" s="4" t="s">
         <v>323</v>
       </c>
@@ -8064,7 +8180,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A386" s="4" t="s">
         <v>323</v>
       </c>
@@ -8078,7 +8194,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A387" s="4" t="s">
         <v>323</v>
       </c>
@@ -8092,7 +8208,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A388" s="4" t="s">
         <v>323</v>
       </c>
@@ -8106,7 +8222,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A389" s="4" t="s">
         <v>323</v>
       </c>
@@ -8120,7 +8236,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A390" s="4" t="s">
         <v>323</v>
       </c>
@@ -8134,7 +8250,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A391" s="4" t="s">
         <v>323</v>
       </c>
@@ -8148,7 +8264,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A392" s="4" t="s">
         <v>323</v>
       </c>
@@ -8162,7 +8278,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A393" s="4" t="s">
         <v>323</v>
       </c>
@@ -8176,7 +8292,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A394" s="4" t="s">
         <v>323</v>
       </c>
@@ -8204,7 +8320,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A396" s="4" t="s">
         <v>323</v>
       </c>
@@ -8218,7 +8334,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A397" s="4" t="s">
         <v>323</v>
       </c>
@@ -8232,7 +8348,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A398" s="4" t="s">
         <v>323</v>
       </c>
@@ -8246,7 +8362,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A399" s="4" t="s">
         <v>323</v>
       </c>
@@ -8260,7 +8376,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A400" s="4" t="s">
         <v>323</v>
       </c>
@@ -8274,7 +8390,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="401" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A401" s="4" t="s">
         <v>323</v>
       </c>
@@ -8288,7 +8404,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A402" s="4" t="s">
         <v>323</v>
       </c>
@@ -8302,7 +8418,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="403" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A403" s="4" t="s">
         <v>323</v>
       </c>
@@ -8316,7 +8432,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="404" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A404" s="4" t="s">
         <v>323</v>
       </c>
@@ -8330,7 +8446,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A405" s="4" t="s">
         <v>323</v>
       </c>
@@ -8344,7 +8460,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A406" s="4" t="s">
         <v>323</v>
       </c>
@@ -8358,7 +8474,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A407" s="4" t="s">
         <v>323</v>
       </c>
@@ -8372,7 +8488,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A408" s="4" t="s">
         <v>323</v>
       </c>
@@ -8386,7 +8502,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="409" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A409" s="4" t="s">
         <v>323</v>
       </c>
@@ -8400,7 +8516,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="410" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A410" s="4" t="s">
         <v>323</v>
       </c>
@@ -8414,7 +8530,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="411" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A411" s="4" t="s">
         <v>323</v>
       </c>
@@ -8428,7 +8544,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A412" s="4" t="s">
         <v>323</v>
       </c>
@@ -8442,7 +8558,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="413" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A413" s="4" t="s">
         <v>323</v>
       </c>
@@ -8456,7 +8572,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="414" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A414" s="4" t="s">
         <v>323</v>
       </c>
@@ -8470,7 +8586,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="415" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A415" s="4" t="s">
         <v>323</v>
       </c>
@@ -8484,7 +8600,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="416" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A416" s="4" t="s">
         <v>323</v>
       </c>
@@ -8498,7 +8614,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="417" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A417" s="4" t="s">
         <v>323</v>
       </c>
@@ -8512,7 +8628,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="418" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A418" s="4" t="s">
         <v>323</v>
       </c>
@@ -8526,7 +8642,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="419" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A419" s="4" t="s">
         <v>323</v>
       </c>
@@ -8540,7 +8656,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="420" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A420" s="4" t="s">
         <v>323</v>
       </c>
@@ -8554,7 +8670,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="421" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A421" s="4" t="s">
         <v>323</v>
       </c>
@@ -8568,7 +8684,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="422" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A422" s="4" t="s">
         <v>323</v>
       </c>
@@ -8582,7 +8698,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="423" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A423" s="4" t="s">
         <v>323</v>
       </c>
@@ -8596,7 +8712,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="424" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A424" s="4" t="s">
         <v>323</v>
       </c>
@@ -8610,7 +8726,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="425" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A425" s="4" t="s">
         <v>323</v>
       </c>
@@ -8624,7 +8740,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="426" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A426" s="4" t="s">
         <v>323</v>
       </c>
@@ -8638,7 +8754,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A427" s="4" t="s">
         <v>323</v>
       </c>
@@ -8652,7 +8768,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="428" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A428" s="4" t="s">
         <v>323</v>
       </c>
@@ -8666,7 +8782,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="429" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A429" s="4" t="s">
         <v>323</v>
       </c>
@@ -8680,7 +8796,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="430" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A430" s="4" t="s">
         <v>323</v>
       </c>
@@ -8694,7 +8810,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="431" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A431" s="4" t="s">
         <v>323</v>
       </c>
@@ -8708,7 +8824,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="432" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A432" s="4" t="s">
         <v>323</v>
       </c>
@@ -8722,7 +8838,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A433" s="4" t="s">
         <v>323</v>
       </c>
@@ -8736,7 +8852,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="434" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A434" s="4" t="s">
         <v>323</v>
       </c>
@@ -8750,7 +8866,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="435" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A435" s="4" t="s">
         <v>323</v>
       </c>
@@ -8764,7 +8880,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="436" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A436" s="4" t="s">
         <v>323</v>
       </c>
@@ -8778,7 +8894,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="437" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A437" s="4" t="s">
         <v>323</v>
       </c>
@@ -13084,11 +13200,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03EB31E4-D12F-C742-B5AC-692AD8368814}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03EB31E4-D12F-C742-B5AC-692AD8368814}">
   <dimension ref="A1:D204"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="C189" sqref="C189"/>
+    <sheetView tabSelected="1" topLeftCell="A188" zoomScale="75" workbookViewId="0">
+      <selection activeCell="C207" sqref="C207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -13113,2849 +13229,2850 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A10" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A11" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A13" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A14" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A15" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A16" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A17" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A18" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A19" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A20" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A21" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A22" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A23" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A24" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A25" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>567</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
+      <c r="C25" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A26" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>567</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
+      <c r="C26" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A27" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>567</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>508</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="11" t="s">
+      <c r="C27" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A28" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>567</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>508</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
+      <c r="C28" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A29" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>567</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>508</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="11" t="s">
+      <c r="C29" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A30" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>567</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>508</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+      <c r="C30" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A31" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B31" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>567</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>513</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="11" t="s">
+      <c r="C31" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A32" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>567</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>513</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="11" t="s">
+      <c r="C32" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A33" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>567</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>513</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="11" t="s">
+      <c r="C33" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A34" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>567</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>513</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
+      <c r="C34" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A35" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>567</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="11" t="s">
+      <c r="C35" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A36" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>567</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="11" t="s">
+      <c r="C36" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A37" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B37" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>567</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="11" t="s">
+      <c r="C37" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A38" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B38" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>567</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="11" t="s">
+      <c r="C38" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A39" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B39" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>567</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="11" t="s">
+      <c r="C39" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A40" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B40" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>567</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="11" t="s">
+      <c r="C40" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A41" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B41" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>567</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="11" t="s">
+      <c r="C41" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A42" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B42" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>567</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="11" t="s">
+      <c r="C42" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A43" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B43" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>567</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="11" t="s">
+      <c r="C43" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A44" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B44" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>567</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="11" t="s">
+      <c r="C44" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A45" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B45" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>567</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="11" t="s">
+      <c r="C45" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A46" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B46" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>567</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="11" t="s">
+      <c r="C46" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A47" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B47" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>567</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="11" t="s">
+      <c r="C47" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A48" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B48" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="C48" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A49" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A50" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A51" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A52" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A53" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A54" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A55" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A56" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A57" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A58" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A59" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A60" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A61" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A62" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A63" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A64" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A65" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A66" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A67" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A68" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A69" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A70" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A71" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A72" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A73" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A74" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A75" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A76" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A77" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A78" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="D78" s="16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A79" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A80" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A81" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A82" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A83" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="D83" s="16" t="s">
         <v>569</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>542</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>542</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>542</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>542</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>542</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B63" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B64" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B67" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>555</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B68" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>555</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B69" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>555</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>555</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B71" s="14" t="s">
-        <v>600</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B72" s="14" t="s">
-        <v>600</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B73" s="14" t="s">
-        <v>600</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B74" s="14" t="s">
-        <v>600</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B75" s="14" t="s">
-        <v>600</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>561</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B76" s="14" t="s">
-        <v>600</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>561</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B77" s="14" t="s">
-        <v>600</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>563</v>
-      </c>
-      <c r="D77" s="11" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>600</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>563</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B79" s="14" t="s">
-        <v>600</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B80" s="14" t="s">
-        <v>600</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B81" s="14" t="s">
-        <v>600</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="D81" s="11" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B82" s="14" t="s">
-        <v>600</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="D82" s="11" t="s">
+    </row>
+    <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A84" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="C84" s="15" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A83" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B83" s="14" t="s">
-        <v>600</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="D83" s="13" t="s">
+      <c r="D84" s="16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A85" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C85" s="17" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A84" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B84" s="14" t="s">
-        <v>600</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B85" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C85" s="11" t="s">
+      <c r="D85" s="18" t="s">
         <v>571</v>
       </c>
-      <c r="D85" s="11" t="s">
+    </row>
+    <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A86" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>570</v>
+      </c>
+      <c r="D86" s="18" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B86" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="D86" s="11" t="s">
+    <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A87" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>570</v>
+      </c>
+      <c r="D87" s="18" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B87" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="D87" s="11" t="s">
+    <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A88" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>570</v>
+      </c>
+      <c r="D88" s="19" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A88" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B88" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="D88" s="12" t="s">
+    <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A89" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>570</v>
+      </c>
+      <c r="D89" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A90" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>570</v>
+      </c>
+      <c r="D90" s="18" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A89" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B89" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C89" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="D89" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B90" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="D90" s="11" t="s">
+    <row r="91" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A91" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>570</v>
+      </c>
+      <c r="D91" s="18" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B91" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C91" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="D91" s="11" t="s">
+    <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A92" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>570</v>
+      </c>
+      <c r="D92" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A93" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>570</v>
+      </c>
+      <c r="D93" s="18" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A92" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B92" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A93" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B93" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C93" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="D93" s="11" t="s">
+    <row r="94" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A94" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C94" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="D94" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A95" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="D95" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A96" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="D96" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A97" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="D97" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A98" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="D98" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A99" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C99" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="D99" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A100" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C100" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="D100" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A101" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C101" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="D101" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A102" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C102" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="D102" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A103" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C103" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="D103" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A104" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C104" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="D104" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A105" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C105" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="D105" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A106" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C106" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="D106" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A107" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C107" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="D107" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A108" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C108" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="D108" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A109" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C109" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="D109" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A110" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C110" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="D110" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A111" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C111" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="D111" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A112" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C112" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="D112" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A113" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C113" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="D113" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A114" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C114" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="D114" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A115" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C115" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="D115" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A116" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C116" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D116" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A117" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C117" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D117" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A118" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C118" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D118" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A119" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C119" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D119" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A120" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C120" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D120" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A121" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C121" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D121" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A122" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C122" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D122" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A123" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C123" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D123" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A124" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C124" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D124" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A125" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C125" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D125" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A126" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C126" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D126" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A127" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C127" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D127" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A128" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C128" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D128" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A129" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C129" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D129" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A130" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C130" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D130" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A131" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C131" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D131" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A132" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C132" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D132" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A133" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C133" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D133" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A134" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C134" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D134" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A135" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C135" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D135" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A136" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C136" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D136" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A137" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C137" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D137" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A138" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C138" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D138" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A139" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C139" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D139" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A140" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C140" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D140" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A141" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C141" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D141" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A142" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C142" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D142" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A143" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B143" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C143" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D143" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A144" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C144" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D144" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A145" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C145" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D145" s="18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A146" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B146" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C146" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D146" s="18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A147" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B147" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C147" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D147" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A148" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C148" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D148" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A149" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B149" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C149" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D149" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A150" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B150" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C150" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D150" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A151" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B151" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C151" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D151" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A152" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B152" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C152" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D152" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A153" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B153" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C153" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D153" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A154" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B154" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C154" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D154" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A155" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B155" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C155" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D155" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A156" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C156" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D156" s="18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A157" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B157" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C157" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D157" s="18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A158" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B158" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C158" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D158" s="18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A159" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C159" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D159" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A160" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C160" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D160" s="18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A161" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B161" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C161" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D161" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A162" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B162" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C162" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D162" s="18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A163" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B163" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C163" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D163" s="18" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A94" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B94" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C94" s="11" t="s">
+    <row r="164" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A164" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B164" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C164" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D164" s="18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A165" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B165" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C165" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D165" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A166" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B166" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C166" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D166" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A167" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B167" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C167" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D167" s="18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A168" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B168" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C168" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D168" s="18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A169" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C169" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D169" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A170" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B170" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C170" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D170" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A171" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B171" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C171" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D171" s="18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A172" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B172" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C172" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D172" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A173" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B173" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C173" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D173" s="18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A174" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B174" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C174" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D174" s="18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A175" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B175" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C175" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D175" s="18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A176" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B176" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C176" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D176" s="18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A177" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B177" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C177" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D177" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A178" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B178" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C178" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D178" s="18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A179" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B179" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C179" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D179" s="18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A180" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B180" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C180" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D180" s="18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A181" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B181" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C181" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D181" s="18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A182" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B182" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C182" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D182" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A183" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B183" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C183" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D183" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A184" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B184" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C184" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D184" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A185" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B185" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C185" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D185" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A186" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B186" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C186" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D186" s="18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A187" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B187" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C187" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D187" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A188" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B188" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C188" s="20" t="s">
         <v>579</v>
       </c>
-      <c r="D94" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B95" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C95" s="11" t="s">
+      <c r="D188" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A189" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B189" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C189" s="20" t="s">
         <v>579</v>
       </c>
-      <c r="D95" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A96" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B96" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C96" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="D96" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A97" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B97" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C97" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="D97" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A98" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B98" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C98" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="D98" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B99" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C99" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B100" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C100" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="D100" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A101" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B101" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C101" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="D101" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A102" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B102" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C102" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="D102" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A103" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B103" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C103" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A104" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B104" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C104" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="D104" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A105" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B105" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C105" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="D105" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A106" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B106" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="D106" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B107" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C107" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="D107" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A108" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B108" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C108" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="D108" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A109" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B109" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C109" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="D109" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A110" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B110" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C110" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="D110" s="11" t="s">
+      <c r="D189" s="18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A190" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B190" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C190" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D190" s="18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A191" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B191" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C191" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D191" s="18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A192" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B192" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C192" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D192" s="18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A193" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B193" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C193" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D193" s="18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A194" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B194" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C194" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D194" s="18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A195" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B195" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C195" s="17" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A111" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B111" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C111" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="D111" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A112" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B112" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C112" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="D112" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A113" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B113" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C113" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="D113" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A114" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B114" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C114" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="D114" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A115" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B115" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C115" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="D115" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B116" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C116" s="11" t="s">
+      <c r="D195" s="18" t="s">
         <v>581</v>
       </c>
-      <c r="D116" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B117" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C117" s="11" t="s">
-        <v>581</v>
-      </c>
-      <c r="D117" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B118" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C118" s="11" t="s">
-        <v>581</v>
-      </c>
-      <c r="D118" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A119" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B119" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C119" s="11" t="s">
-        <v>581</v>
-      </c>
-      <c r="D119" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A120" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B120" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C120" s="11" t="s">
-        <v>581</v>
-      </c>
-      <c r="D120" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A121" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B121" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C121" s="11" t="s">
-        <v>581</v>
-      </c>
-      <c r="D121" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A122" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B122" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C122" s="11" t="s">
-        <v>581</v>
-      </c>
-      <c r="D122" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A123" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B123" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C123" s="11" t="s">
-        <v>581</v>
-      </c>
-      <c r="D123" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A124" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B124" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C124" s="11" t="s">
-        <v>581</v>
-      </c>
-      <c r="D124" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A125" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B125" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C125" s="11" t="s">
-        <v>581</v>
-      </c>
-      <c r="D125" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A126" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B126" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C126" s="11" t="s">
-        <v>581</v>
-      </c>
-      <c r="D126" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A127" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B127" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C127" s="11" t="s">
-        <v>581</v>
-      </c>
-      <c r="D127" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A128" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B128" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C128" s="11" t="s">
-        <v>581</v>
-      </c>
-      <c r="D128" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A129" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B129" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C129" s="11" t="s">
-        <v>581</v>
-      </c>
-      <c r="D129" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A130" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B130" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C130" s="11" t="s">
-        <v>581</v>
-      </c>
-      <c r="D130" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A131" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B131" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C131" s="11" t="s">
-        <v>581</v>
-      </c>
-      <c r="D131" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A132" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B132" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C132" s="11" t="s">
-        <v>581</v>
-      </c>
-      <c r="D132" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A133" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B133" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C133" s="11" t="s">
-        <v>581</v>
-      </c>
-      <c r="D133" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A134" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B134" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C134" s="11" t="s">
-        <v>581</v>
-      </c>
-      <c r="D134" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A135" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B135" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C135" s="11" t="s">
-        <v>581</v>
-      </c>
-      <c r="D135" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A136" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B136" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C136" s="11" t="s">
-        <v>581</v>
-      </c>
-      <c r="D136" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A137" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B137" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C137" s="11" t="s">
-        <v>581</v>
-      </c>
-      <c r="D137" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A138" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B138" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C138" s="11" t="s">
-        <v>581</v>
-      </c>
-      <c r="D138" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A139" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B139" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C139" s="11" t="s">
-        <v>581</v>
-      </c>
-      <c r="D139" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A140" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B140" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C140" s="11" t="s">
-        <v>581</v>
-      </c>
-      <c r="D140" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A141" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B141" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C141" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D141" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A142" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B142" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C142" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D142" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A143" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B143" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C143" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D143" s="11" t="s">
+    </row>
+    <row r="196" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A196" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B196" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C196" s="17" t="s">
+        <v>580</v>
+      </c>
+      <c r="D196" s="18" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A144" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B144" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C144" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D144" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A145" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B145" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C145" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D145" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A146" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B146" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C146" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D146" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A147" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B147" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C147" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D147" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A148" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B148" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C148" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D148" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A149" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B149" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C149" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D149" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A150" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B150" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C150" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D150" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A151" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B151" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C151" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D151" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A152" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B152" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C152" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D152" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A153" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B153" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C153" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D153" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A154" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B154" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C154" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D154" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A155" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B155" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C155" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D155" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A156" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B156" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C156" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D156" s="11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A157" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B157" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C157" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D157" s="11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A158" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B158" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C158" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D158" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A159" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B159" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C159" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D159" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A160" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B160" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C160" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D160" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A161" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B161" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C161" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D161" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A162" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B162" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C162" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D162" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A163" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B163" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C163" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D163" s="11" t="s">
+    <row r="197" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A197" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B197" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C197" s="17" t="s">
+        <v>580</v>
+      </c>
+      <c r="D197" s="18" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A164" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B164" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C164" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D164" s="11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A165" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B165" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C165" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D165" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A166" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B166" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C166" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D166" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A167" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B167" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C167" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D167" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A168" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B168" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C168" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D168" s="11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A169" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B169" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C169" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D169" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A170" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B170" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C170" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D170" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A171" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B171" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C171" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D171" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A172" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B172" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C172" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D172" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A173" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B173" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C173" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D173" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A174" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B174" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C174" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D174" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A175" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B175" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C175" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D175" s="11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A176" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B176" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C176" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D176" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A177" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B177" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C177" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D177" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A178" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B178" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C178" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D178" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A179" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B179" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C179" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D179" s="11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A180" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B180" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C180" s="11" t="s">
+    <row r="198" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A198" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B198" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C198" s="17" t="s">
+        <v>580</v>
+      </c>
+      <c r="D198" s="18" t="s">
         <v>584</v>
       </c>
-      <c r="D180" s="11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A181" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B181" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C181" s="11" t="s">
-        <v>584</v>
-      </c>
-      <c r="D181" s="11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A182" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B182" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C182" s="11" t="s">
-        <v>584</v>
-      </c>
-      <c r="D182" s="11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A183" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B183" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C183" s="11" t="s">
-        <v>584</v>
-      </c>
-      <c r="D183" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A184" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B184" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C184" s="11" t="s">
-        <v>584</v>
-      </c>
-      <c r="D184" s="11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A185" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B185" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C185" s="11" t="s">
-        <v>584</v>
-      </c>
-      <c r="D185" s="11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A186" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B186" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C186" s="11" t="s">
-        <v>584</v>
-      </c>
-      <c r="D186" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A187" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B187" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C187" s="11" t="s">
-        <v>584</v>
-      </c>
-      <c r="D187" s="11" t="s">
+    </row>
+    <row r="199" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A199" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B199" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C199" s="17" t="s">
+        <v>580</v>
+      </c>
+      <c r="D199" s="18" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A188" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B188" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C188" s="11" t="s">
+    <row r="200" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A200" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B200" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C200" s="20" t="s">
         <v>586</v>
       </c>
-      <c r="D188" s="11" t="s">
+      <c r="D200" s="18" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A189" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B189" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C189" s="11" t="s">
+    <row r="201" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A201" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B201" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C201" s="20" t="s">
         <v>586</v>
       </c>
-      <c r="D189" s="11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A190" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B190" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C190" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D190" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A191" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B191" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C191" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D191" s="11" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A192" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B192" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C192" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D192" s="11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A193" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B193" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C193" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D193" s="11" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A194" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B194" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C194" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D194" s="11" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A195" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B195" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C195" s="11" t="s">
+      <c r="D201" s="19" t="s">
         <v>588</v>
       </c>
-      <c r="D195" s="11" t="s">
+    </row>
+    <row r="202" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A202" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B202" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C202" s="20" t="s">
+        <v>586</v>
+      </c>
+      <c r="D202" s="18" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A196" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B196" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C196" s="11" t="s">
-        <v>588</v>
-      </c>
-      <c r="D196" s="11" t="s">
+    <row r="203" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A203" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B203" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C203" s="20" t="s">
+        <v>586</v>
+      </c>
+      <c r="D203" s="18" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A197" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B197" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C197" s="11" t="s">
-        <v>588</v>
-      </c>
-      <c r="D197" s="11" t="s">
+    <row r="204" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A204" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B204" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C204" s="20" t="s">
+        <v>586</v>
+      </c>
+      <c r="D204" s="18" t="s">
         <v>591</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A198" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B198" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C198" s="11" t="s">
-        <v>588</v>
-      </c>
-      <c r="D198" s="11" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A199" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B199" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C199" s="11" t="s">
-        <v>588</v>
-      </c>
-      <c r="D199" s="11" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A200" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B200" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C200" s="11" t="s">
-        <v>594</v>
-      </c>
-      <c r="D200" s="11" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A201" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B201" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C201" s="11" t="s">
-        <v>594</v>
-      </c>
-      <c r="D201" s="12" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A202" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B202" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C202" s="11" t="s">
-        <v>594</v>
-      </c>
-      <c r="D202" s="11" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A203" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B203" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C203" s="11" t="s">
-        <v>594</v>
-      </c>
-      <c r="D203" s="11" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A204" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B204" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C204" s="11" t="s">
-        <v>594</v>
-      </c>
-      <c r="D204" s="11" t="s">
-        <v>599</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Cadeia de Valor_Operar.xlsx
+++ b/Cadeia de Valor_Operar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabriel/Desktop/Dev/BI Cadeia de Valor - Operar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049814D7-373A-3942-9BC1-058D8CD9F3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198146BC-6557-5844-BC68-800EA0FA03E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23600" yWindow="500" windowWidth="23600" windowHeight="15900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4300" yWindow="780" windowWidth="29900" windowHeight="19880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cadeia de Valor_Anterior" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="D88" authorId="0" shapeId="0" xr:uid="{D6A8F49F-ABBA-E14F-B921-E8138CEEF88F}">
+    <comment ref="C88" authorId="0" shapeId="0" xr:uid="{D6A8F49F-ABBA-E14F-B921-E8138CEEF88F}">
       <text>
         <r>
           <rPr>
@@ -62,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D93" authorId="0" shapeId="0" xr:uid="{A9A950EB-E14E-2C4D-B486-46152F0D50B2}">
+    <comment ref="C93" authorId="0" shapeId="0" xr:uid="{A9A950EB-E14E-2C4D-B486-46152F0D50B2}">
       <text>
         <r>
           <rPr>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2555" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2352" uniqueCount="595">
   <si>
     <t>Processo</t>
   </si>
@@ -2134,9 +2134,6 @@
     <t>Fornecer Frota</t>
   </si>
   <si>
-    <t>Operar Frota</t>
-  </si>
-  <si>
     <t>Programar e Atender serviços</t>
   </si>
   <si>
@@ -2225,7 +2222,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2286,13 +2283,6 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2453,7 +2443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2483,8 +2473,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2493,22 +2482,22 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -13203,15 +13192,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03EB31E4-D12F-C742-B5AC-692AD8368814}">
   <dimension ref="A1:D204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" zoomScale="75" workbookViewId="0">
-      <selection activeCell="C207" sqref="C207"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" customWidth="1"/>
-    <col min="2" max="2" width="34.83203125" customWidth="1"/>
-    <col min="3" max="3" width="53.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="91.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13231,2844 +13220,2235 @@
     </row>
     <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>566</v>
+        <v>505</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>505</v>
-      </c>
-      <c r="D2" s="13" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>566</v>
+        <v>505</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>505</v>
-      </c>
-      <c r="D3" s="13" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>566</v>
-      </c>
-      <c r="C4" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>566</v>
+        <v>508</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>508</v>
-      </c>
-      <c r="D5" s="13" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>566</v>
+        <v>508</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>508</v>
-      </c>
-      <c r="D6" s="13" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>566</v>
+        <v>508</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>508</v>
-      </c>
-      <c r="D7" s="13" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>566</v>
+        <v>513</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="D8" s="13" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>566</v>
+        <v>513</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="D9" s="13" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>566</v>
+        <v>513</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="D10" s="13" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>566</v>
+        <v>513</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="D11" s="13" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>566</v>
+        <v>518</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>518</v>
-      </c>
-      <c r="D12" s="13" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>566</v>
+        <v>518</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>518</v>
-      </c>
-      <c r="D13" s="13" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>566</v>
+        <v>518</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>518</v>
-      </c>
-      <c r="D14" s="13" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>566</v>
+        <v>518</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>518</v>
-      </c>
-      <c r="D15" s="13" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A17" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>518</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A17" s="10" t="s">
-        <v>567</v>
-      </c>
       <c r="B17" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A18" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A18" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B18" s="11" t="s">
+      <c r="C18" s="12" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A19" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A19" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B19" s="11" t="s">
+      <c r="C19" s="12" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A20" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A20" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B20" s="11" t="s">
+      <c r="C20" s="12" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A21" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A21" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B21" s="11" t="s">
+      <c r="C21" s="12" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A22" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A22" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B22" s="11" t="s">
+      <c r="C22" s="12" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A23" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A23" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B23" s="11" t="s">
+      <c r="C23" s="12" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A24" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A24" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>566</v>
-      </c>
       <c r="C24" s="12" t="s">
-        <v>524</v>
-      </c>
-      <c r="D24" s="13" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
         <v>567</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>568</v>
+        <v>528</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>528</v>
-      </c>
-      <c r="D25" s="13" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
         <v>567</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="C26" s="12" t="s">
         <v>528</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="C26" s="13" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
         <v>567</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="C27" s="12" t="s">
         <v>528</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="C27" s="13" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
         <v>567</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="C28" s="12" t="s">
         <v>528</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="C28" s="13" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
         <v>567</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="C29" s="12" t="s">
         <v>528</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="C29" s="13" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
         <v>567</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>568</v>
+        <v>528</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>528</v>
-      </c>
-      <c r="D30" s="13" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
         <v>567</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>568</v>
+        <v>528</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>528</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="10" t="s">
         <v>567</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>568</v>
+        <v>528</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>528</v>
-      </c>
-      <c r="D32" s="13" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
         <v>567</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>568</v>
+        <v>536</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="D33" s="13" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
         <v>567</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>568</v>
+        <v>536</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="D34" s="13" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
         <v>567</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>568</v>
+        <v>536</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="D35" s="13" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
         <v>567</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="C36" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
         <v>567</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="C37" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="10" t="s">
         <v>567</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>568</v>
+        <v>541</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>541</v>
-      </c>
-      <c r="D38" s="13" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
         <v>567</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="C39" s="12" t="s">
         <v>541</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="C39" s="13" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="10" t="s">
         <v>567</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>568</v>
+        <v>541</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>541</v>
-      </c>
-      <c r="D40" s="13" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="10" t="s">
         <v>567</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>568</v>
+        <v>541</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>541</v>
-      </c>
-      <c r="D41" s="13" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="10" t="s">
         <v>567</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>568</v>
+        <v>541</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>541</v>
-      </c>
-      <c r="D42" s="13" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="10" t="s">
         <v>567</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="C43" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="C43" s="13" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="10" t="s">
         <v>567</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>568</v>
+        <v>547</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="D44" s="13" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A45" s="10" t="s">
         <v>567</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>568</v>
+        <v>547</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="D45" s="13" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="10" t="s">
         <v>567</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>568</v>
+        <v>547</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="D46" s="13" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A47" s="10" t="s">
         <v>567</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>568</v>
+        <v>547</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="D47" s="13" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A48" s="10" t="s">
         <v>567</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>568</v>
+        <v>445</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="D48" s="13" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A49" s="10" t="s">
         <v>567</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>568</v>
+        <v>445</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="D49" s="13" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A50" s="10" t="s">
         <v>567</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>568</v>
+        <v>445</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="D50" s="13" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A51" s="10" t="s">
         <v>567</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>568</v>
+        <v>445</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="D51" s="13" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A52" s="10" t="s">
         <v>567</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>552</v>
-      </c>
-      <c r="D52" s="13" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A53" s="10" t="s">
         <v>567</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>552</v>
-      </c>
-      <c r="D53" s="13" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
         <v>567</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>552</v>
-      </c>
-      <c r="D54" s="13" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A55" s="10" t="s">
         <v>567</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>552</v>
-      </c>
-      <c r="D55" s="13" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
         <v>567</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>552</v>
-      </c>
-      <c r="D56" s="13" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A57" s="10" t="s">
         <v>567</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>552</v>
-      </c>
-      <c r="D57" s="13" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
         <v>567</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>552</v>
-      </c>
-      <c r="D58" s="13" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A59" s="10" t="s">
         <v>567</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>552</v>
-      </c>
-      <c r="D59" s="13" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A60" s="10" t="s">
         <v>567</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>552</v>
-      </c>
-      <c r="D60" s="13" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A61" s="10" t="s">
         <v>567</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>552</v>
-      </c>
-      <c r="D61" s="13" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A62" s="10" t="s">
         <v>567</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>552</v>
-      </c>
-      <c r="D62" s="13" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A63" s="10" t="s">
         <v>567</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>552</v>
-      </c>
-      <c r="D63" s="13" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A64" s="10" t="s">
         <v>567</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>552</v>
-      </c>
-      <c r="D64" s="13" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A65" s="10" t="s">
         <v>567</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>552</v>
-      </c>
-      <c r="D65" s="13" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A66" s="10" t="s">
         <v>567</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>552</v>
-      </c>
-      <c r="D66" s="13" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A67" s="10" t="s">
         <v>567</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>554</v>
-      </c>
-      <c r="D67" s="13" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A68" s="10" t="s">
         <v>567</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>554</v>
-      </c>
-      <c r="D68" s="13" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A69" s="10" t="s">
         <v>567</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="C69" s="12" t="s">
         <v>554</v>
       </c>
-      <c r="D69" s="13" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="70" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A70" s="10" t="s">
         <v>567</v>
       </c>
       <c r="B70" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A71" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>558</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A72" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>558</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A73" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>558</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A74" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>558</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A75" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A76" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A77" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A78" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A79" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>563</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A80" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>563</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A81" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>563</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A82" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>563</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A83" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="C83" s="15" t="s">
         <v>568</v>
       </c>
-      <c r="C70" s="12" t="s">
-        <v>554</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A71" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B71" s="11" t="s">
+    </row>
+    <row r="84" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A84" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A85" s="10" t="s">
         <v>592</v>
       </c>
-      <c r="C71" s="15" t="s">
-        <v>558</v>
-      </c>
-      <c r="D71" s="16" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A72" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>592</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>558</v>
-      </c>
-      <c r="D72" s="16" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A73" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B73" s="11" t="s">
-        <v>592</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>558</v>
-      </c>
-      <c r="D73" s="16" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A74" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>592</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>558</v>
-      </c>
-      <c r="D74" s="16" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A75" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>592</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>560</v>
-      </c>
-      <c r="D75" s="16" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A76" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>592</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>560</v>
-      </c>
-      <c r="D76" s="16" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A77" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>592</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>562</v>
-      </c>
-      <c r="D77" s="16" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A78" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>592</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>562</v>
-      </c>
-      <c r="D78" s="16" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A79" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>592</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>563</v>
-      </c>
-      <c r="D79" s="16" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A80" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>592</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>563</v>
-      </c>
-      <c r="D80" s="16" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A81" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>592</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>563</v>
-      </c>
-      <c r="D81" s="16" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A82" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>592</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>563</v>
-      </c>
-      <c r="D82" s="16" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A83" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B83" s="11" t="s">
-        <v>592</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>565</v>
-      </c>
-      <c r="D83" s="16" t="s">
+      <c r="B85" s="16" t="s">
         <v>569</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A84" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>592</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>565</v>
-      </c>
-      <c r="D84" s="16" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A85" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B85" s="11" t="s">
-        <v>593</v>
       </c>
       <c r="C85" s="17" t="s">
         <v>570</v>
       </c>
-      <c r="D85" s="18" t="s">
+    </row>
+    <row r="86" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A86" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="C86" s="17" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A86" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B86" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>570</v>
-      </c>
-      <c r="D86" s="18" t="s">
+    <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A87" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="C87" s="17" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A87" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C87" s="17" t="s">
-        <v>570</v>
-      </c>
-      <c r="D87" s="18" t="s">
+    <row r="88" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A88" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B88" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="C88" s="18" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A88" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B88" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>570</v>
-      </c>
-      <c r="D88" s="19" t="s">
+    <row r="89" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A89" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A90" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="C90" s="17" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A89" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B89" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>570</v>
-      </c>
-      <c r="D89" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A90" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C90" s="17" t="s">
-        <v>570</v>
-      </c>
-      <c r="D90" s="18" t="s">
+    <row r="91" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A91" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="C91" s="17" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A91" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B91" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C91" s="17" t="s">
-        <v>570</v>
-      </c>
-      <c r="D91" s="18" t="s">
+    <row r="92" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A92" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A93" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="C93" s="17" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A92" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B92" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C92" s="17" t="s">
-        <v>570</v>
-      </c>
-      <c r="D92" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A93" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B93" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C93" s="17" t="s">
-        <v>570</v>
-      </c>
-      <c r="D93" s="18" t="s">
+    <row r="94" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A94" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B94" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A95" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B95" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A96" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B96" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="C96" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A97" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B97" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A98" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B98" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A99" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B99" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A100" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B100" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A101" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B101" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="C101" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A102" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B102" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="C102" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A103" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B103" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="C103" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A104" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B104" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="C104" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A105" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B105" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="C105" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A106" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B106" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="C106" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A107" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B107" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A108" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B108" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="C108" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A109" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B109" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="C109" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A110" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B110" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="C110" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A111" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B111" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="C111" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A112" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B112" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="C112" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A113" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B113" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="C113" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A114" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B114" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="C114" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A115" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B115" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="C115" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A116" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B116" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C116" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A117" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B117" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C117" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A118" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B118" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C118" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A119" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B119" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C119" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A120" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B120" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C120" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A121" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B121" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C121" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A122" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B122" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C122" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A123" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B123" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C123" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A124" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B124" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C124" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A125" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B125" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C125" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A126" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B126" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C126" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A127" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B127" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C127" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A128" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B128" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C128" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A129" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B129" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C129" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A130" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B130" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C130" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A131" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B131" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C131" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A132" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B132" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C132" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A133" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B133" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C133" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A134" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B134" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C134" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A135" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B135" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C135" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A136" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B136" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C136" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A137" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B137" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C137" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A138" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B138" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C138" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A139" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B139" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C139" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A140" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B140" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C140" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A141" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B141" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C141" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A142" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B142" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C142" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A143" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B143" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C143" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A144" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B144" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C144" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A145" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B145" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C145" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A146" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B146" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C146" s="17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A147" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B147" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C147" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A148" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B148" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C148" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A149" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B149" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C149" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A150" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B150" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C150" s="17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A151" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B151" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C151" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A152" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B152" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C152" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A153" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B153" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C153" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A154" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B154" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C154" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A155" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B155" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C155" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A156" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B156" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C156" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A157" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B157" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C157" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A158" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B158" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C158" s="17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A159" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B159" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C159" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A160" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B160" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C160" s="17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A161" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B161" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C161" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A162" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B162" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C162" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A163" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B163" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C163" s="17" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A94" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B94" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C94" s="20" t="s">
-        <v>595</v>
-      </c>
-      <c r="D94" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A95" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C95" s="20" t="s">
-        <v>595</v>
-      </c>
-      <c r="D95" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A96" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B96" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C96" s="20" t="s">
-        <v>595</v>
-      </c>
-      <c r="D96" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A97" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B97" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C97" s="20" t="s">
-        <v>595</v>
-      </c>
-      <c r="D97" s="18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A98" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B98" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C98" s="20" t="s">
-        <v>595</v>
-      </c>
-      <c r="D98" s="18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A99" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B99" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C99" s="20" t="s">
-        <v>595</v>
-      </c>
-      <c r="D99" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A100" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B100" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C100" s="20" t="s">
-        <v>595</v>
-      </c>
-      <c r="D100" s="18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A101" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B101" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C101" s="20" t="s">
-        <v>595</v>
-      </c>
-      <c r="D101" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A102" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B102" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C102" s="20" t="s">
-        <v>595</v>
-      </c>
-      <c r="D102" s="18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A103" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B103" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C103" s="20" t="s">
-        <v>595</v>
-      </c>
-      <c r="D103" s="18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A104" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B104" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C104" s="20" t="s">
-        <v>595</v>
-      </c>
-      <c r="D104" s="18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A105" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B105" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C105" s="20" t="s">
-        <v>595</v>
-      </c>
-      <c r="D105" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A106" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B106" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C106" s="20" t="s">
-        <v>595</v>
-      </c>
-      <c r="D106" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A107" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B107" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C107" s="20" t="s">
-        <v>595</v>
-      </c>
-      <c r="D107" s="18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A108" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B108" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C108" s="20" t="s">
-        <v>595</v>
-      </c>
-      <c r="D108" s="18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A109" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B109" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C109" s="20" t="s">
-        <v>595</v>
-      </c>
-      <c r="D109" s="18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A110" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B110" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C110" s="20" t="s">
-        <v>595</v>
-      </c>
-      <c r="D110" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A111" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B111" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C111" s="20" t="s">
-        <v>595</v>
-      </c>
-      <c r="D111" s="18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A112" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B112" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C112" s="20" t="s">
-        <v>595</v>
-      </c>
-      <c r="D112" s="18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A113" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B113" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C113" s="20" t="s">
-        <v>595</v>
-      </c>
-      <c r="D113" s="18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A114" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B114" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C114" s="20" t="s">
-        <v>595</v>
-      </c>
-      <c r="D114" s="18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A115" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B115" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C115" s="20" t="s">
-        <v>595</v>
-      </c>
-      <c r="D115" s="18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A116" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B116" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C116" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D116" s="18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A117" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C117" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D117" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A118" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B118" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C118" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D118" s="18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A119" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B119" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C119" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D119" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A120" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B120" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C120" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D120" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A121" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B121" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C121" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D121" s="18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A122" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B122" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C122" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D122" s="18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A123" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B123" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C123" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D123" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A124" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B124" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C124" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D124" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A125" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B125" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C125" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D125" s="18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A126" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B126" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C126" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D126" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A127" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B127" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C127" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D127" s="18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A128" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B128" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C128" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D128" s="18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A129" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B129" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C129" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D129" s="18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A130" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B130" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C130" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D130" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A131" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B131" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C131" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D131" s="18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A132" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B132" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C132" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D132" s="18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A133" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B133" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C133" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D133" s="18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A134" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B134" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C134" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D134" s="18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A135" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B135" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C135" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D135" s="18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A136" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B136" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C136" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D136" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A137" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B137" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C137" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D137" s="18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A138" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B138" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C138" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D138" s="18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A139" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B139" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C139" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D139" s="18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A140" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B140" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C140" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D140" s="18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A141" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B141" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C141" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D141" s="18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A142" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B142" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C142" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D142" s="18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A143" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B143" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C143" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D143" s="18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A144" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B144" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C144" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D144" s="18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A145" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B145" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C145" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D145" s="18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A146" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B146" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C146" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D146" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A147" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B147" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C147" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D147" s="18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A148" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B148" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C148" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D148" s="18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A149" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B149" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C149" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D149" s="18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A150" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B150" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C150" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D150" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A151" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B151" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C151" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D151" s="18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A152" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B152" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C152" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D152" s="18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A153" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B153" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C153" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D153" s="18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A154" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B154" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C154" s="20" t="s">
+    <row r="164" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A164" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B164" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="D154" s="18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A155" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B155" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C155" s="20" t="s">
+      <c r="C164" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A165" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B165" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="D155" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A156" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B156" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C156" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D156" s="18" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A157" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B157" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C157" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D157" s="18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A158" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B158" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C158" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D158" s="18" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A159" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B159" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C159" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D159" s="18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A160" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B160" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C160" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D160" s="18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A161" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B161" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C161" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D161" s="18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A162" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B162" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C162" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D162" s="18" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A163" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B163" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C163" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D163" s="18" t="s">
+      <c r="C165" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A166" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B166" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C166" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A167" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B167" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C167" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A168" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B168" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C168" s="17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A169" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B169" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C169" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A170" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B170" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C170" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A171" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B171" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C171" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A172" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B172" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C172" s="17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A173" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B173" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C173" s="17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A174" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B174" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C174" s="17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A175" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B175" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C175" s="17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A176" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B176" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C176" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A177" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B177" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C177" s="17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A178" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B178" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C178" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A179" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B179" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C179" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A180" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B180" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C180" s="17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A181" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B181" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C181" s="17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A182" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B182" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C182" s="17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A183" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B183" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C183" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A184" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B184" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C184" s="17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A185" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B185" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C185" s="17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A186" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B186" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C186" s="17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A187" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B187" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C187" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A188" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B188" s="19" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A164" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B164" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C164" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D164" s="18" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A165" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B165" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C165" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D165" s="18" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A166" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B166" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C166" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D166" s="18" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A167" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B167" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C167" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D167" s="18" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A168" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B168" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C168" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D168" s="18" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A169" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B169" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C169" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D169" s="18" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A170" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B170" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C170" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D170" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A171" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B171" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C171" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D171" s="18" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A172" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B172" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C172" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D172" s="18" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A173" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B173" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C173" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="D173" s="18" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A174" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B174" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C174" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="D174" s="18" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A175" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B175" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C175" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="D175" s="18" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A176" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B176" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C176" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="D176" s="18" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A177" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B177" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C177" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="D177" s="18" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A178" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B178" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C178" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="D178" s="18" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A179" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B179" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C179" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="D179" s="18" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A180" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B180" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C180" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="D180" s="18" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A181" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B181" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C181" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="D181" s="18" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A182" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B182" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C182" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="D182" s="18" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A183" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B183" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C183" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="D183" s="18" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A184" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B184" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C184" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="D184" s="18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A185" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B185" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C185" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="D185" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A186" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B186" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C186" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="D186" s="18" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A187" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B187" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C187" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="D187" s="18" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A188" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B188" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C188" s="20" t="s">
+      <c r="C188" s="17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A189" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B189" s="19" t="s">
+        <v>578</v>
+      </c>
+      <c r="C189" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A190" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B190" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C190" s="17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A191" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B191" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C191" s="17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A192" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B192" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C192" s="17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A193" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B193" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C193" s="17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A194" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B194" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C194" s="17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A195" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B195" s="16" t="s">
         <v>579</v>
-      </c>
-      <c r="D188" s="18" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A189" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B189" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C189" s="20" t="s">
-        <v>579</v>
-      </c>
-      <c r="D189" s="18" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A190" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B190" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C190" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="D190" s="18" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A191" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B191" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C191" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="D191" s="18" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A192" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B192" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C192" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="D192" s="18" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A193" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B193" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C193" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="D193" s="18" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A194" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B194" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C194" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="D194" s="18" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A195" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B195" s="11" t="s">
-        <v>593</v>
       </c>
       <c r="C195" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="D195" s="18" t="s">
+    </row>
+    <row r="196" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A196" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B196" s="16" t="s">
+        <v>579</v>
+      </c>
+      <c r="C196" s="17" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A196" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B196" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C196" s="17" t="s">
-        <v>580</v>
-      </c>
-      <c r="D196" s="18" t="s">
+    <row r="197" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A197" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B197" s="16" t="s">
+        <v>579</v>
+      </c>
+      <c r="C197" s="17" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A197" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B197" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C197" s="17" t="s">
-        <v>580</v>
-      </c>
-      <c r="D197" s="18" t="s">
+    <row r="198" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A198" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B198" s="16" t="s">
+        <v>579</v>
+      </c>
+      <c r="C198" s="17" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A198" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B198" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C198" s="17" t="s">
-        <v>580</v>
-      </c>
-      <c r="D198" s="18" t="s">
+    <row r="199" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A199" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B199" s="16" t="s">
+        <v>579</v>
+      </c>
+      <c r="C199" s="17" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A199" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B199" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C199" s="17" t="s">
-        <v>580</v>
-      </c>
-      <c r="D199" s="18" t="s">
+    <row r="200" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A200" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B200" s="19" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A200" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B200" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C200" s="20" t="s">
+      <c r="C200" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="D200" s="18" t="s">
+    </row>
+    <row r="201" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A201" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B201" s="19" t="s">
+        <v>585</v>
+      </c>
+      <c r="C201" s="18" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A201" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B201" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C201" s="20" t="s">
-        <v>586</v>
-      </c>
-      <c r="D201" s="19" t="s">
+    <row r="202" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A202" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B202" s="19" t="s">
+        <v>585</v>
+      </c>
+      <c r="C202" s="17" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A202" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B202" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C202" s="20" t="s">
-        <v>586</v>
-      </c>
-      <c r="D202" s="18" t="s">
+    <row r="203" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A203" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B203" s="19" t="s">
+        <v>585</v>
+      </c>
+      <c r="C203" s="17" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A203" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B203" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C203" s="20" t="s">
-        <v>586</v>
-      </c>
-      <c r="D203" s="18" t="s">
+    <row r="204" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A204" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B204" s="19" t="s">
+        <v>585</v>
+      </c>
+      <c r="C204" s="17" t="s">
         <v>590</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A204" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B204" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C204" s="20" t="s">
-        <v>586</v>
-      </c>
-      <c r="D204" s="18" t="s">
-        <v>591</v>
       </c>
     </row>
   </sheetData>
